--- a/DATA_ANALYSIS_CHECKLIST.xlsx
+++ b/DATA_ANALYSIS_CHECKLIST.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Data Analysis - CHECKLIST</t>
   </si>
@@ -118,9 +117,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
   <si>
     <t>The average delivery delay time on the script is based on the messages that contain location (filter II). It should be based on all sent messages with delay.</t>
@@ -531,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.25">
@@ -1156,6 +1153,7 @@
       <c r="J16" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="10">
@@ -1186,13 +1184,13 @@
         <v>2.1666666666666667E-2</v>
       </c>
       <c r="I18" s="19">
-        <v>1.2187500000000002E-2</v>
+        <v>2.1666666666666667E-2</v>
       </c>
       <c r="J18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
         <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
@@ -1206,13 +1204,13 @@
         <v>9.7569444444444448E-3</v>
       </c>
       <c r="I19" s="19">
-        <v>8.4375000000000006E-3</v>
+        <v>9.7569444444444448E-3</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
@@ -1226,13 +1224,13 @@
         <v>1.7187499999999998E-2</v>
       </c>
       <c r="I20" s="19">
-        <v>9.3749999999999997E-3</v>
+        <v>1.7187499999999998E-2</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.25">
@@ -1243,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>30</v>
@@ -1260,10 +1258,10 @@
         <v>22</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>30</v>
@@ -1277,14 +1275,15 @@
         <v>23</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F24" s="10">
@@ -1294,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>30</v>
@@ -1312,10 +1311,10 @@
         <v>25</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>30</v>
@@ -1329,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>30</v>
@@ -1346,10 +1345,10 @@
         <v>27</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>30</v>

--- a/DATA_ANALYSIS_CHECKLIST.xlsx
+++ b/DATA_ANALYSIS_CHECKLIST.xlsx
@@ -23,8 +23,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Kenneth De Coster</author>
+  </authors>
+  <commentList>
+    <comment ref="G36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth De Coster:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need STC-Router log
+ to validate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kenneth De Coster:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need STC-Router log
+ to validate.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Data Analysis - CHECKLIST</t>
   </si>
@@ -107,9 +167,6 @@
     <t>Total number of delayed messages per loco (3 locos)</t>
   </si>
   <si>
-    <t>Percentage of delaye per loco (3 locos)</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -156,13 +213,52 @@
   </si>
   <si>
     <t>1,32%/1,58%/5,56%</t>
+  </si>
+  <si>
+    <t>Alternative Flow I - Channels</t>
+  </si>
+  <si>
+    <t>Alternative Flow II - Channels</t>
+  </si>
+  <si>
+    <t>Percentage of delays per loco (3 locos)</t>
+  </si>
+  <si>
+    <t>Exception in function channel_analysis (ERROR)</t>
+  </si>
+  <si>
+    <t>Total number of delays per SB (3 sbs)</t>
+  </si>
+  <si>
+    <t>TCP: 0 and INMARSAT: 0 - Channels</t>
+  </si>
+  <si>
+    <t>Queue delays - Channels</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per GPRS channel (3 messages) SENT</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per INMARSAT channel (3 messages) SENT</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per NaN channel (3 messages) SENT</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per GPRS channel (3 messages) RECEIVED</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per INMARSAT channel (3 messages) RECEIVED</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per NaN channel (3 messages) RECEIVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +300,19 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -231,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -523,11 +632,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +705,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,7 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,46 +1026,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="6:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
       <c r="M4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="20">
         <v>12</v>
@@ -955,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="21">
         <v>2020</v>
@@ -975,7 +1108,7 @@
         <v>57890</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="6:15" x14ac:dyDescent="0.25">
@@ -992,7 +1125,7 @@
         <v>83205</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="12"/>
     </row>
@@ -1011,7 +1144,7 @@
         <v>141095</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="6:15" x14ac:dyDescent="0.25">
@@ -1028,7 +1161,7 @@
         <v>1.9097222222222222E-3</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="12"/>
     </row>
@@ -1046,7 +1179,7 @@
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="6:15" x14ac:dyDescent="0.25">
@@ -1063,10 +1196,10 @@
         <v>1.1111111111111111E-3</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.25">
@@ -1083,7 +1216,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.25">
@@ -1100,7 +1233,7 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.25">
@@ -1117,7 +1250,7 @@
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="6:15" x14ac:dyDescent="0.25">
@@ -1134,7 +1267,7 @@
         <v>3919</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="6:15" x14ac:dyDescent="0.25">
@@ -1151,7 +1284,7 @@
         <v>2357</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O16" s="12"/>
     </row>
@@ -1170,7 +1303,7 @@
         <v>6276</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.25">
@@ -1187,10 +1320,10 @@
         <v>2.1666666666666667E-2</v>
       </c>
       <c r="J18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
         <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
@@ -1207,10 +1340,10 @@
         <v>9.7569444444444448E-3</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
@@ -1227,10 +1360,10 @@
         <v>1.7187499999999998E-2</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.25">
@@ -1241,13 +1374,13 @@
         <v>21</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.25">
@@ -1258,13 +1391,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.25">
@@ -1275,15 +1408,15 @@
         <v>23</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F24" s="10">
@@ -1293,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" s="12"/>
     </row>
@@ -1311,13 +1444,13 @@
         <v>25</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="6:14" x14ac:dyDescent="0.25">
@@ -1328,13 +1461,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1342,16 +1475,113 @@
         <v>22</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="25">
+        <v>23</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="25">
+        <v>24</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="25">
+        <v>25</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="25">
+        <v>26</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="25">
         <v>27</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="G32" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="25">
+        <v>28</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="25">
+        <v>29</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="25">
         <v>30</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="25">
+        <v>31</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="25">
+        <v>32</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="25">
+        <v>33</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="25">
+        <v>34</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1368,5 +1598,6 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DATA_ANALYSIS_CHECKLIST.xlsx
+++ b/DATA_ANALYSIS_CHECKLIST.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dec_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Mar_2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
   <si>
     <t>Data Analysis - CHECKLIST</t>
   </si>
@@ -252,6 +253,87 @@
   </si>
   <si>
     <t>Total number of delayed messages per NaN channel (3 messages) RECEIVED</t>
+  </si>
+  <si>
+    <t>Compare with dashboard</t>
+  </si>
+  <si>
+    <t>Total number of Sent messages per loco (3 locos)/3008/402/18</t>
+  </si>
+  <si>
+    <t>602/137/235</t>
+  </si>
+  <si>
+    <t>Total number of Received messages per loco (3 locos)/3002/3006/320</t>
+  </si>
+  <si>
+    <t>85/2750/718</t>
+  </si>
+  <si>
+    <t>Total number of messages per loco (3 locos)/4312/80/404</t>
+  </si>
+  <si>
+    <t>2486/4/898</t>
+  </si>
+  <si>
+    <t>7/135/235</t>
+  </si>
+  <si>
+    <t>Total number of delayed messages per loco (3 locos)/3003/3007/4301</t>
+  </si>
+  <si>
+    <t>Total number of delayed Sent messages per loco (3 locos)323/402/4316</t>
+  </si>
+  <si>
+    <t>9/9/105</t>
+  </si>
+  <si>
+    <t>Total number of delayed Received messages per loco (3 locos)4319/615/570</t>
+  </si>
+  <si>
+    <t>21/51/3</t>
+  </si>
+  <si>
+    <t>!! This field does not represent the % of delay of each locomotive, but the % of delay between all locomotives (so 100%).</t>
+  </si>
+  <si>
+    <t>Total number of delays per SB / MBBD</t>
+  </si>
+  <si>
+    <t>Alternative Flow I - Channels (3 messages)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>V, V, V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Percentage of delays per loco</t>
+  </si>
+  <si>
+    <t>No Alternative Flow II found this month.</t>
+  </si>
+  <si>
+    <t>No ERROR found this month</t>
+  </si>
+  <si>
+    <t>TCP: 0 and INMARSAT: 0 - Channels (STC-Router needed - or check if message is &gt; 1h)</t>
+  </si>
+  <si>
+    <t>Queue delays - Both channels</t>
+  </si>
+  <si>
+    <t>V, V</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Sum of GPRS, Inmarsat and no attempt delayed messages</t>
   </si>
 </sst>
 </file>
@@ -340,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -494,45 +576,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -639,8 +682,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,64 +697,86 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,7 +799,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1027,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:O39"/>
+  <dimension ref="F1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,31 +1152,31 @@
   <sheetData>
     <row r="1" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="6:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="M4" s="22" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="M4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="16">
         <v>12</v>
       </c>
     </row>
@@ -1087,115 +1196,115 @@
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>2020</v>
       </c>
     </row>
     <row r="6" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="7">
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="22">
         <v>57890</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="22">
         <v>57890</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>83205</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>83205</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>SUM(H6:H7)</f>
         <v>141095</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>141095</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K11" t="s">
@@ -1203,123 +1312,123 @@
       </c>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>7</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="14">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="14">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>9</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="14">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="14">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>10</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>3919</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>3919</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>11</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>2357</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>2357</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="12"/>
+      <c r="J16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>12</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f>SUM(H15:H16)</f>
         <v>6276</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>6276</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>13</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>2.1666666666666667E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="15">
         <v>2.1666666666666667E-2</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K18" t="s">
@@ -1327,19 +1436,19 @@
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>14</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <v>9.7569444444444448E-3</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <v>9.7569444444444448E-3</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K19" t="s">
@@ -1347,19 +1456,19 @@
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="15">
         <v>1.7187499999999998E-2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="15">
         <v>1.7187499999999998E-2</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K20" t="s">
@@ -1367,228 +1476,899 @@
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>16</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>17</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>18</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="24"/>
+      <c r="J23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>19</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="12"/>
+      <c r="J24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>20</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>21</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="9">
+      <c r="J26" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="6">
         <v>22</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="25">
+      <c r="F28" s="6">
         <v>23</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F29" s="25">
+      <c r="F29" s="6">
         <v>24</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F30" s="25">
+      <c r="F30" s="6">
         <v>25</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F31" s="25">
+      <c r="F31" s="6">
         <v>26</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F32" s="25">
+      <c r="F32" s="6">
         <v>27</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="25">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="6">
         <v>28</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="25">
-        <v>29</v>
-      </c>
-      <c r="G34" s="26" t="s">
+      <c r="H33" s="24"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="6">
+        <v>29</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="25">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="6">
         <v>30</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="25">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="6">
         <v>31</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="25">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="6">
         <v>32</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="25">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="6">
         <v>33</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="25">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="6">
         <v>34</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="7">
+        <v>35</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J27">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="6:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="6:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="M4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="22">
+        <v>49535</v>
+      </c>
+      <c r="I6" s="22">
+        <v>49535</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>71209</v>
+      </c>
+      <c r="I7" s="4">
+        <v>71209</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H6+H7</f>
+        <v>120744</v>
+      </c>
+      <c r="I8" s="4">
+        <v>120744</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="I10" s="15">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="8">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1.4351851851851854E-3</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.4351851851851854E-3</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="8">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="14">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <f>I15/I6</f>
+        <v>8.5454728979509439E-2</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="14">
+        <f>H16/H7</f>
+        <v>3.3001446446376162E-2</v>
+      </c>
+      <c r="I13" s="14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="8">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="14">
+        <f>H17/H8</f>
+        <v>5.452030742728417E-2</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5.45E-2</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4233</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4233</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2350</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2350</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F17" s="8">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="9">
+        <f>H15+H16</f>
+        <v>6583</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6583</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F18" s="8">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2.5868055555555557E-2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2.5868055555555557E-2</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1.0150462962962964E-2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1.0150462962962964E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="8">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2.0254629629629629E-2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2.0254629629629629E-2</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="8">
+        <v>16</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="8">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="8">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="8">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="8">
+        <v>21</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="6">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="6">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="6">
+        <v>24</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="6">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="6">
+        <v>26</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="6">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="6">
+        <v>28</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="8">
+        <v>29</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="7">
+        <v>30</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J25 J27:J35">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -1598,6 +2378,5 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>